--- a/ipv6_cimek.xlsx
+++ b/ipv6_cimek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86200BFC-495F-4D1D-BDF5-DF561178ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C5E988-04FD-4728-9599-4E15AEE3E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
-    <t xml:space="preserve">  Név</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Network</t>
+    <t>Név</t>
+  </si>
+  <si>
+    <t>Network</t>
   </si>
   <si>
     <t>First address</t>
@@ -48,176 +48,176 @@
     <t>1 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:1000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:1000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:1fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:1000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:1000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:1000::ff</t>
   </si>
   <si>
     <t>2 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:2000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:2000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:2fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:2000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:2000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:2000::ff</t>
   </si>
   <si>
     <t>3 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:3000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:3000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:3fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:3000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:3000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:3000::ff</t>
   </si>
   <si>
     <t>4 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:4000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:4000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:4fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:4000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:4000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:4000::ff</t>
   </si>
   <si>
     <t>5 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:5000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:5000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:5fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:5000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:5000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:5000::ff</t>
   </si>
   <si>
     <t>6 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:6000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:6000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:6fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:6000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:6000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:6000::ff</t>
   </si>
   <si>
     <t>7 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:7000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:7000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:7fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:7000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:7000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:7000::ff</t>
   </si>
   <si>
     <t>8 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:8000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:8000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:8fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:8000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:8000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:8000::ff</t>
   </si>
   <si>
     <t>9 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:9000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:9000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:9fff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:9000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:9000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:9000::ff</t>
   </si>
   <si>
     <t>10 emelet</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:a000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:a000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:afff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:a000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:a000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:a000::ff</t>
   </si>
   <si>
     <t>AP</t>
   </si>
   <si>
-    <t xml:space="preserve">	2001:db8:acad:0:b000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:b000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:bfff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:b000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:b000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:b000::ff</t>
   </si>
   <si>
     <t>Switch/Router</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:c000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:c000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:cfff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:c000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:c000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:c000::ff</t>
   </si>
   <si>
     <t>Előadói</t>
   </si>
   <si>
-    <t>2001:db8:acad:0:d000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:d000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:dfff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:d000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:d000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:d000::ff</t>
   </si>
   <si>
     <t>Tanári</t>
   </si>
   <si>
-    <t xml:space="preserve">	2001:db8:acad:0:e000::/68</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:e000:0000:0000:0000</t>
-  </si>
-  <si>
-    <t>2001:0db8:acad:0000:efff:ffff:ffff:ffff</t>
+    <t>2001:db8:acad:0:e000::/120</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:e000::</t>
+  </si>
+  <si>
+    <t>2001:db8:acad:0:e000::ff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +226,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF444444"/>
-      <name val="Titillium Web"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,14 +252,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -261,21 +261,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -610,382 +680,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C396466-3AB3-4CD0-B7A6-797C85E45F04}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:L15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.25">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.25">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.25">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.25">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25">
-      <c r="A11" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25">
-      <c r="A12" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25">
-      <c r="A14" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25">
-      <c r="A15" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>